--- a/results/logistic/dilemma/confidence/lossy/sum_scores.xlsx
+++ b/results/logistic/dilemma/confidence/lossy/sum_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="176">
   <si>
     <t>negative</t>
   </si>
@@ -55,259 +55,274 @@
     <t>fake</t>
   </si>
   <si>
+    <t>seriously</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>addicted</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>bad</t>
+    <t>news</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>sad</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>news</t>
+    <t>disturbing</t>
   </si>
   <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>sad</t>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>hate</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
-    <t>disturbing</t>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>drugs</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>mad</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>software</t>
   </si>
   <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>mad</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>creepy</t>
+    <t>least</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
+  </si>
+  <si>
+    <t>truth</t>
   </si>
   <si>
     <t>faster</t>
   </si>
   <si>
-    <t>software</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>sick</t>
+    <t>consequences</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>shocked</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>least</t>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>’</t>
   </si>
   <si>
     <t>mit</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>ho</t>
+    <t>study</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>intriguing</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>past</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>film</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>‘</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>spreads</t>
+  </si>
+  <si>
+    <t>released</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>late</t>
   </si>
   <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>days</t>
+    <t>un</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>eye</t>
+  </si>
+  <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>chilling</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>woke</t>
   </si>
   <si>
     <t>uncomfortable</t>
   </si>
   <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>realized</t>
+  </si>
+  <si>
+    <t>dea</t>
+  </si>
+  <si>
     <t>dumb</t>
   </si>
   <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>spreads</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>study</t>
-  </si>
-  <si>
-    <t>generation</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>industries</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>con</t>
-  </si>
-  <si>
-    <t>must</t>
-  </si>
-  <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>bias</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>information</t>
-  </si>
-  <si>
-    <t>travels</t>
-  </si>
-  <si>
-    <t>released</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>opening</t>
-  </si>
-  <si>
-    <t>chilling</t>
-  </si>
-  <si>
-    <t>afraid</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>enough</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>less</t>
+    <t>extremely</t>
+  </si>
+  <si>
+    <t>algorithms</t>
   </si>
   <si>
     <t>positive</t>
@@ -340,46 +355,100 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
     <t>ironic</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>many</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>goals</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>influence</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>mani</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>real</t>
   </si>
   <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>first</t>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>posting</t>
   </si>
   <si>
     <t>right</t>
@@ -388,166 +457,91 @@
     <t>used</t>
   </si>
   <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>democracy</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>hear</t>
   </si>
   <si>
     <t>user</t>
   </si>
   <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>ti</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>mind</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>polar</t>
+  </si>
+  <si>
+    <t>advanced</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>critics</t>
   </si>
   <si>
     <t>watch</t>
   </si>
   <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>waiting</t>
-  </si>
-  <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>opener</t>
-  </si>
-  <si>
-    <t>pu</t>
+    <t>latest</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>mind</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>critics</t>
+    <t>greatest</t>
+  </si>
+  <si>
+    <t>•</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>gotten</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>scrolling</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>platform</t>
   </si>
   <si>
     <t>action</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>democracy</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>mani</t>
-  </si>
-  <si>
-    <t>im</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>discussion</t>
-  </si>
-  <si>
-    <t>school</t>
-  </si>
-  <si>
-    <t>wonder</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>polar</t>
-  </si>
-  <si>
-    <t>advanced</t>
-  </si>
-  <si>
-    <t>magic</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>consumption</t>
-  </si>
-  <si>
-    <t>posting</t>
-  </si>
-  <si>
-    <t>opt</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>yesterday</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>platform</t>
   </si>
 </sst>
 </file>
@@ -905,7 +899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q92"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -916,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -974,13 +968,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.2003257328990228</v>
+        <v>0.2009884678747941</v>
       </c>
       <c r="C3">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -992,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K3">
-        <v>0.2390057361376673</v>
+        <v>0.2384615384615385</v>
       </c>
       <c r="L3">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M3">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1016,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1024,13 +1018,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.1009771986970684</v>
+        <v>0.1037891268533773</v>
       </c>
       <c r="C4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1042,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K4">
-        <v>0.08986615678776291</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="L4">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M4">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1066,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1074,13 +1068,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.0488599348534202</v>
+        <v>0.04612850082372323</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1092,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K5">
-        <v>0.07265774378585087</v>
+        <v>0.08269230769230769</v>
       </c>
       <c r="L5">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1116,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1124,13 +1118,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.03908794788273615</v>
+        <v>0.04448105436573312</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1142,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K6">
-        <v>0.07074569789674952</v>
+        <v>0.08076923076923077</v>
       </c>
       <c r="L6">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1166,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1174,13 +1168,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03420195439739414</v>
+        <v>0.03789126853377265</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1192,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K7">
-        <v>0.04780114722753346</v>
+        <v>0.04423076923076923</v>
       </c>
       <c r="L7">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1216,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1224,13 +1218,13 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.03420195439739414</v>
+        <v>0.03624382207578253</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1242,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K8">
-        <v>0.0401529636711281</v>
+        <v>0.04230769230769231</v>
       </c>
       <c r="L8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1266,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1274,13 +1268,13 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.02931596091205212</v>
+        <v>0.03130148270181219</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1292,19 +1286,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K9">
-        <v>0.0401529636711281</v>
+        <v>0.03653846153846154</v>
       </c>
       <c r="L9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1316,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1324,13 +1318,13 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02768729641693811</v>
+        <v>0.02965403624382208</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1342,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K10">
-        <v>0.02294455066921606</v>
+        <v>0.025</v>
       </c>
       <c r="L10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1366,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1374,13 +1368,13 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.0244299674267101</v>
+        <v>0.02306425041186162</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1392,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K11">
-        <v>0.02294455066921606</v>
+        <v>0.025</v>
       </c>
       <c r="L11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1416,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1424,7 +1418,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02117263843648208</v>
+        <v>0.0214168039538715</v>
       </c>
       <c r="C12">
         <v>13</v>
@@ -1442,13 +1436,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K12">
-        <v>0.02103250478011472</v>
+        <v>0.02115384615384616</v>
       </c>
       <c r="L12">
         <v>11</v>
@@ -1466,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1474,7 +1468,7 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.02117263843648208</v>
+        <v>0.0214168039538715</v>
       </c>
       <c r="C13">
         <v>13</v>
@@ -1492,13 +1486,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K13">
-        <v>0.01912045889101338</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="L13">
         <v>10</v>
@@ -1516,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1524,13 +1518,13 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02117263843648208</v>
+        <v>0.01976935749588138</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1542,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K14">
-        <v>0.01720841300191205</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="L14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1566,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1574,7 +1568,7 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.01954397394136808</v>
+        <v>0.01976935749588138</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -1592,19 +1586,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K15">
-        <v>0.01529636711281071</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1616,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1624,7 +1618,7 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01791530944625407</v>
+        <v>0.01812191103789127</v>
       </c>
       <c r="C16">
         <v>11</v>
@@ -1642,19 +1636,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K16">
-        <v>0.01529636711281071</v>
+        <v>0.01730769230769231</v>
       </c>
       <c r="L16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1666,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1674,13 +1668,13 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.01628664495114007</v>
+        <v>0.01482701812191104</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1692,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K17">
-        <v>0.01338432122370937</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="L17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1716,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1724,13 +1718,13 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.01628664495114007</v>
+        <v>0.01482701812191104</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1745,16 +1739,16 @@
         <v>14</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K18">
-        <v>0.01147227533460803</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1766,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1774,7 +1768,7 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.01465798045602606</v>
+        <v>0.01482701812191104</v>
       </c>
       <c r="C19">
         <v>9</v>
@@ -1792,19 +1786,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K19">
-        <v>0.009560229445506692</v>
+        <v>0.01346153846153846</v>
       </c>
       <c r="L19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1816,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1824,37 +1818,37 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.01465798045602606</v>
+        <v>0.01317957166392092</v>
       </c>
       <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>9</v>
       </c>
-      <c r="D20">
-        <v>9</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>8</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="K20">
-        <v>0.009560229445506692</v>
+        <v>0.01346153846153846</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1866,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1874,13 +1868,13 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01465798045602606</v>
+        <v>0.01317957166392092</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1892,13 +1886,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="K21">
-        <v>0.009560229445506692</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="L21">
         <v>5</v>
@@ -1924,13 +1918,13 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.01465798045602606</v>
+        <v>0.01317957166392092</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1942,19 +1936,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="K22">
-        <v>0.009560229445506692</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="L22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1966,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1974,7 +1968,7 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.01302931596091205</v>
+        <v>0.01317957166392092</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -1995,16 +1989,16 @@
         <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K23">
-        <v>0.009560229445506692</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="L23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2016,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2024,49 +2018,49 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.01302931596091205</v>
+        <v>0.01153212520593081</v>
       </c>
       <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K24">
+        <v>0.00576923076923077</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>8</v>
-      </c>
-      <c r="D24">
-        <v>8</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>8</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K24">
-        <v>0.009560229445506692</v>
-      </c>
-      <c r="L24">
-        <v>5</v>
-      </c>
-      <c r="M24">
-        <v>5</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2074,13 +2068,13 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.01140065146579805</v>
+        <v>0.009884678747940691</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2092,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="K25">
-        <v>0.007648183556405353</v>
+        <v>0.00576923076923077</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2116,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2124,13 +2118,13 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01140065146579805</v>
+        <v>0.009884678747940691</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2142,13 +2136,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="K26">
-        <v>0.005736137667304016</v>
+        <v>0.00576923076923077</v>
       </c>
       <c r="L26">
         <v>3</v>
@@ -2166,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2174,7 +2168,7 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.009771986970684038</v>
+        <v>0.009884678747940691</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -2192,13 +2186,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K27">
-        <v>0.005736137667304016</v>
+        <v>0.00576923076923077</v>
       </c>
       <c r="L27">
         <v>3</v>
@@ -2216,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2224,13 +2218,13 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.009771986970684038</v>
+        <v>0.008237232289950576</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2242,13 +2236,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K28">
-        <v>0.005736137667304016</v>
+        <v>0.00576923076923077</v>
       </c>
       <c r="L28">
         <v>3</v>
@@ -2266,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>312</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2274,7 +2268,7 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.008143322475570033</v>
+        <v>0.008237232289950576</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -2292,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K29">
-        <v>0.005736137667304016</v>
+        <v>0.00576923076923077</v>
       </c>
       <c r="L29">
         <v>3</v>
@@ -2316,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2324,7 +2318,7 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.008143322475570033</v>
+        <v>0.008237232289950576</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -2345,10 +2339,10 @@
         <v>8</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K30">
-        <v>0.005736137667304016</v>
+        <v>0.00576923076923077</v>
       </c>
       <c r="L30">
         <v>3</v>
@@ -2366,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2374,13 +2368,13 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.008143322475570033</v>
+        <v>0.006589785831960461</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2392,13 +2386,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="K31">
-        <v>0.005736137667304016</v>
+        <v>0.00576923076923077</v>
       </c>
       <c r="L31">
         <v>3</v>
@@ -2416,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2424,7 +2418,7 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.006514657980456026</v>
+        <v>0.006589785831960461</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -2442,31 +2436,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="K32">
-        <v>0.005736137667304016</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M32">
         <v>3</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>5</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2474,7 +2468,7 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.006514657980456026</v>
+        <v>0.006589785831960461</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -2492,31 +2486,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K33">
-        <v>0.005736137667304016</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>3</v>
-      </c>
-      <c r="M33">
-        <v>3</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>1</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2524,7 +2518,7 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.006514657980456026</v>
+        <v>0.006589785831960461</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -2542,19 +2536,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K34">
-        <v>0.005736137667304016</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2566,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2574,7 +2568,7 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.006514657980456026</v>
+        <v>0.006589785831960461</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -2595,16 +2589,16 @@
         <v>8</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K35">
-        <v>0.005736137667304016</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2616,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>26</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2624,7 +2618,7 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.006514657980456026</v>
+        <v>0.006589785831960461</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -2642,13 +2636,13 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K36">
-        <v>0.003824091778202677</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="L36">
         <v>2</v>
@@ -2666,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>614</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2674,7 +2668,7 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.006514657980456026</v>
+        <v>0.006589785831960461</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -2692,13 +2686,13 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K37">
-        <v>0.003824091778202677</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="L37">
         <v>2</v>
@@ -2716,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2724,7 +2718,7 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.006514657980456026</v>
+        <v>0.006589785831960461</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -2745,10 +2739,10 @@
         <v>9</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K38">
-        <v>0.003824091778202677</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="L38">
         <v>2</v>
@@ -2766,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2774,13 +2768,13 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.006514657980456026</v>
+        <v>0.004942339373970346</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2792,13 +2786,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K39">
-        <v>0.003824091778202677</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="L39">
         <v>2</v>
@@ -2816,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2824,7 +2818,7 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>0.004885993485342019</v>
+        <v>0.004942339373970346</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -2842,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K40">
-        <v>0.003824091778202677</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="L40">
         <v>2</v>
@@ -2866,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>29</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2874,7 +2868,7 @@
         <v>47</v>
       </c>
       <c r="B41">
-        <v>0.004885993485342019</v>
+        <v>0.004942339373970346</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -2892,13 +2886,13 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K41">
-        <v>0.003824091778202677</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="L41">
         <v>2</v>
@@ -2916,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>3</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2924,7 +2918,7 @@
         <v>48</v>
       </c>
       <c r="B42">
-        <v>0.004885993485342019</v>
+        <v>0.004942339373970346</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -2942,13 +2936,13 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K42">
-        <v>0.003824091778202677</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="L42">
         <v>2</v>
@@ -2966,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2974,7 +2968,7 @@
         <v>49</v>
       </c>
       <c r="B43">
-        <v>0.004885993485342019</v>
+        <v>0.004942339373970346</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -2992,13 +2986,13 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K43">
-        <v>0.003824091778202677</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="L43">
         <v>2</v>
@@ -3016,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3024,13 +3018,13 @@
         <v>50</v>
       </c>
       <c r="B44">
-        <v>0.004885993485342019</v>
+        <v>0.003294892915980231</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3042,13 +3036,13 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>9</v>
+        <v>297</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K44">
-        <v>0.003824091778202677</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="L44">
         <v>2</v>
@@ -3066,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3074,31 +3068,31 @@
         <v>51</v>
       </c>
       <c r="B45">
-        <v>0.003257328990228013</v>
+        <v>0.003294892915980231</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>778</v>
+        <v>45</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K45">
-        <v>0.003824091778202677</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="L45">
         <v>2</v>
@@ -3116,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3124,7 +3118,7 @@
         <v>52</v>
       </c>
       <c r="B46">
-        <v>0.003257328990228013</v>
+        <v>0.003294892915980231</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -3142,19 +3136,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>297</v>
+        <v>52</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K46">
-        <v>0.003824091778202677</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="L46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3166,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3174,7 +3168,7 @@
         <v>53</v>
       </c>
       <c r="B47">
-        <v>0.003257328990228013</v>
+        <v>0.003294892915980231</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -3192,19 +3186,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K47">
-        <v>0.003824091778202677</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="L47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3216,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3224,7 +3218,7 @@
         <v>54</v>
       </c>
       <c r="B48">
-        <v>0.003257328990228013</v>
+        <v>0.003294892915980231</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -3242,19 +3236,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K48">
-        <v>0.003824091778202677</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="L48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3266,15 +3260,15 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0.003257328990228013</v>
+        <v>0.003294892915980231</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -3292,19 +3286,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K49">
-        <v>0.003824091778202677</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="L49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3316,15 +3310,15 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.003257328990228013</v>
+        <v>0.003294892915980231</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -3342,13 +3336,13 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="K50">
-        <v>0.001912045889101338</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -3366,15 +3360,15 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>662</v>
+        <v>779</v>
       </c>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.003257328990228013</v>
+        <v>0.003294892915980231</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -3392,13 +3386,13 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K51">
-        <v>0.001912045889101338</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -3416,15 +3410,15 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>1735</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52">
-        <v>0.003257328990228013</v>
+        <v>0.003294892915980231</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -3442,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K52">
-        <v>0.001912045889101338</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -3466,15 +3460,15 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.003257328990228013</v>
+        <v>0.003294892915980231</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -3492,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K53">
-        <v>0.001912045889101338</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -3516,21 +3510,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.003257328990228013</v>
+        <v>0.001647446457990115</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3542,13 +3536,13 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K54">
-        <v>0.001912045889101338</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -3566,39 +3560,39 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.003257328990228013</v>
+        <v>0.001647446457990115</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>2</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>7</v>
+        <v>779</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K55">
-        <v>0.001912045889101338</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="L55">
         <v>1</v>
@@ -3616,21 +3610,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.003257328990228013</v>
+        <v>0.001647446457990115</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3642,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K56">
-        <v>0.001912045889101338</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="L56">
         <v>1</v>
@@ -3666,21 +3660,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.003257328990228013</v>
+        <v>0.001647446457990115</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3692,13 +3686,13 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K57">
-        <v>0.001912045889101338</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="L57">
         <v>1</v>
@@ -3716,15 +3710,15 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.001628664495114007</v>
+        <v>0.001647446457990115</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -3742,39 +3736,39 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="K58">
-        <v>0.001912045889101338</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="L58">
         <v>1</v>
       </c>
       <c r="M58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N58">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="O58">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>778</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.001628664495114007</v>
+        <v>0.001647446457990115</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -3792,13 +3786,13 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="K59">
-        <v>0.001912045889101338</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="L59">
         <v>1</v>
@@ -3816,15 +3810,15 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.001628664495114007</v>
+        <v>0.001647446457990115</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -3842,13 +3836,13 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="K60">
-        <v>0.001912045889101338</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -3866,15 +3860,15 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.001628664495114007</v>
+        <v>0.001647446457990115</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -3892,13 +3886,13 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="K61">
-        <v>0.001912045889101338</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="L61">
         <v>1</v>
@@ -3916,15 +3910,15 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0.001628664495114007</v>
+        <v>0.001647446457990115</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -3945,10 +3939,10 @@
         <v>8</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="K62">
-        <v>0.001912045889101338</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="L62">
         <v>1</v>
@@ -3966,15 +3960,15 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.001628664495114007</v>
+        <v>0.001647446457990115</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -3992,13 +3986,13 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K63">
-        <v>0.001912045889101338</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="L63">
         <v>1</v>
@@ -4016,15 +4010,15 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.001628664495114007</v>
+        <v>0.001647446457990115</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4042,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K64">
-        <v>0.001912045889101338</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="L64">
         <v>1</v>
@@ -4066,15 +4060,15 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.001628664495114007</v>
+        <v>0.001647446457990115</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4092,13 +4086,13 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K65">
-        <v>0.001912045889101338</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -4116,15 +4110,15 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>20</v>
+        <v>615</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.001628664495114007</v>
+        <v>0.001647446457990115</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4142,13 +4136,13 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="K66">
-        <v>0.001912045889101338</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -4166,15 +4160,15 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.001628664495114007</v>
+        <v>0.001647446457990115</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4192,13 +4186,13 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K67">
-        <v>0.001912045889101338</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="L67">
         <v>1</v>
@@ -4216,15 +4210,15 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.001628664495114007</v>
+        <v>0.001647446457990115</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4242,13 +4236,13 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K68">
-        <v>0.001912045889101338</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -4266,15 +4260,15 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.001628664495114007</v>
+        <v>0.001647446457990115</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4292,13 +4286,13 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K69">
-        <v>0.001912045889101338</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -4316,15 +4310,15 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B70">
-        <v>0.001628664495114007</v>
+        <v>0.001647446457990115</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -4342,13 +4336,13 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K70">
-        <v>0.001912045889101338</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="L70">
         <v>1</v>
@@ -4366,15 +4360,15 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.001628664495114007</v>
+        <v>0.001647446457990115</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4392,13 +4386,13 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K71">
-        <v>0.001912045889101338</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -4416,15 +4410,15 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.001628664495114007</v>
+        <v>0.001647446457990115</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4442,13 +4436,13 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K72">
-        <v>0.001912045889101338</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -4466,15 +4460,15 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.001628664495114007</v>
+        <v>0.001647446457990115</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4492,13 +4486,13 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="K73">
-        <v>0.001912045889101338</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="L73">
         <v>1</v>
@@ -4516,15 +4510,15 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.001628664495114007</v>
+        <v>0.001647446457990115</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4542,13 +4536,13 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K74">
-        <v>0.001912045889101338</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -4566,15 +4560,15 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.001628664495114007</v>
+        <v>0.001647446457990115</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4592,13 +4586,13 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K75">
-        <v>0.001912045889101338</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -4616,15 +4610,15 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.001628664495114007</v>
+        <v>0.001647446457990115</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4642,13 +4636,13 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="K76">
-        <v>0.001912045889101338</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="L76">
         <v>1</v>
@@ -4666,15 +4660,15 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.001628664495114007</v>
+        <v>0.001647446457990115</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4692,39 +4686,15 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>7</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K77">
-        <v>0.001912045889101338</v>
-      </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-      <c r="M77">
-        <v>1</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <v>1</v>
-      </c>
-      <c r="P77" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>9</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.001628664495114007</v>
+        <v>0.001647446457990115</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4742,89 +4712,41 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>6</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K78">
-        <v>0.001912045889101338</v>
-      </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
-      <c r="M78">
-        <v>1</v>
-      </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
-      <c r="O78">
-        <v>1</v>
-      </c>
-      <c r="P78" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.001628664495114007</v>
+        <v>0.001647446457990115</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E79">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>662</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K79">
-        <v>0.001912045889101338</v>
-      </c>
-      <c r="L79">
-        <v>1</v>
-      </c>
-      <c r="M79">
-        <v>1</v>
-      </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
-      <c r="O79">
-        <v>1</v>
-      </c>
-      <c r="P79" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.001628664495114007</v>
+        <v>0.001647446457990115</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4842,415 +4764,449 @@
         <v>0</v>
       </c>
       <c r="H80">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81">
+        <v>0.001647446457990115</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81">
         <v>11</v>
       </c>
-      <c r="J80" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K80">
-        <v>0.001912045889101338</v>
-      </c>
-      <c r="L80">
-        <v>1</v>
-      </c>
-      <c r="M80">
-        <v>1</v>
-      </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
-      <c r="O80">
-        <v>1</v>
-      </c>
-      <c r="P80" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q80">
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82">
+        <v>0.001647446457990115</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83">
+        <v>0.001647446457990115</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83">
+        <v>0.33</v>
+      </c>
+      <c r="F83">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84">
+        <v>0.001647446457990115</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85">
+        <v>0.001647446457990115</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86">
+        <v>0.001647446457990115</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
-      <c r="A81" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81">
-        <v>0.001628664495114007</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>2</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K81">
-        <v>0.001912045889101338</v>
-      </c>
-      <c r="L81">
-        <v>1</v>
-      </c>
-      <c r="M81">
-        <v>1</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-      <c r="O81">
-        <v>1</v>
-      </c>
-      <c r="P81" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q81">
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87">
+        <v>0.001647446457990115</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88">
+        <v>0.001647446457990115</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89">
+        <v>0.001647446457990115</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90">
+        <v>0.001647446457990115</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91">
+        <v>0.001647446457990115</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92">
+        <v>0.001647446457990115</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93">
+        <v>0.001647446457990115</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>0.001647446457990115</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
-      <c r="A82" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82">
-        <v>0.001628664495114007</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>40</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K82">
-        <v>0.001912045889101338</v>
-      </c>
-      <c r="L82">
-        <v>1</v>
-      </c>
-      <c r="M82">
-        <v>1</v>
-      </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-      <c r="O82">
-        <v>1</v>
-      </c>
-      <c r="P82" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17">
-      <c r="A83" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83">
-        <v>0.001628664495114007</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>8</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K83">
-        <v>0.001912045889101338</v>
-      </c>
-      <c r="L83">
-        <v>1</v>
-      </c>
-      <c r="M83">
-        <v>1</v>
-      </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
-      <c r="O83">
-        <v>1</v>
-      </c>
-      <c r="P83" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17">
-      <c r="A84" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84">
-        <v>0.001628664495114007</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17">
-      <c r="A85" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85">
-        <v>0.001628664495114007</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17">
-      <c r="A86" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86">
-        <v>0.001628664495114007</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17">
-      <c r="A87" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87">
-        <v>0.001628664495114007</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17">
-      <c r="A88" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88">
-        <v>0.001628664495114007</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17">
-      <c r="A89" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89">
-        <v>0.001628664495114007</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17">
-      <c r="A90" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90">
-        <v>0.001628664495114007</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17">
-      <c r="A91" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B91">
-        <v>0.001628664495114007</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17">
-      <c r="A92" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B92">
-        <v>0.001628664495114007</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>18</v>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95">
+        <v>0.001647446457990115</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96">
+        <v>0.001647446457990115</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97">
+        <v>0.001647446457990115</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
